--- a/level-2/hackerearth/phase-2-algorithms-sorting/hackerearth-phase-2-algorithms-sorting.xlsx
+++ b/level-2/hackerearth/phase-2-algorithms-sorting/hackerearth-phase-2-algorithms-sorting.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BCB6F6-D8DA-4191-BA22-EC068BEF37A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BD50E3-7828-4C3B-B661-AF40B508656D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="level 2 - algorithms-sorting" sheetId="14" r:id="rId1"/>
+    <sheet name="algorithms-sorting" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -660,12 +673,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -678,10 +691,7 @@
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -690,11 +700,14 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -722,15 +735,6 @@
     </xf>
     <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1302,10 +1306,10 @@
   <cols>
     <col min="1" max="1" width="33.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="7" width="15.109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
+    <col min="3" max="7" width="15.109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="9" customWidth="1"/>
     <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1395,17 +1399,17 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="7">
         <f>SUM(C4:G4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1416,16 +1420,16 @@
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="7">
         <f>SUM(C5:G5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1446,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1467,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1488,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1509,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1530,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1551,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1562,17 +1566,17 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1593,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1614,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1635,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1656,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1677,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1688,17 +1692,17 @@
       <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1719,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1740,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1751,17 +1755,17 @@
       <c r="B21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="22" t="s">
+      <c r="J21" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1782,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1803,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="22" t="s">
+      <c r="J23" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1824,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1845,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="22" t="s">
+      <c r="J25" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1866,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="22" t="s">
+      <c r="J26" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1887,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="22" t="s">
+      <c r="J27" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1908,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="22" t="s">
+      <c r="J28" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1929,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="22" t="s">
+      <c r="J29" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1940,17 +1944,17 @@
       <c r="B30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
       <c r="H30" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="22" t="s">
+      <c r="J30" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1961,17 +1965,17 @@
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
       <c r="H31" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="22" t="s">
+      <c r="J31" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1992,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="22" t="s">
+      <c r="J32" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2013,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="22" t="s">
+      <c r="J33" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2024,17 +2028,17 @@
       <c r="B34" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
       <c r="H34" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="22" t="s">
+      <c r="J34" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2045,17 +2049,17 @@
       <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
       <c r="H35" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="22" t="s">
+      <c r="J35" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2076,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="22" t="s">
+      <c r="J36" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2087,17 +2091,17 @@
       <c r="B37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
       <c r="H37" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="22" t="s">
+      <c r="J37" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2118,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="22" t="s">
+      <c r="J38" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2129,17 +2133,17 @@
       <c r="B39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="22" t="s">
+      <c r="J39" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2160,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="22" t="s">
+      <c r="J40" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2181,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="22" t="s">
+      <c r="J41" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2202,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="22" t="s">
+      <c r="J42" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2223,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="22" t="s">
+      <c r="J43" s="10" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2234,17 +2238,17 @@
       <c r="B44" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
       <c r="H44" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="22" t="s">
+      <c r="J44" s="10" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2255,17 +2259,17 @@
       <c r="B45" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
       <c r="H45" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="22" t="s">
+      <c r="J45" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2276,17 +2280,17 @@
       <c r="B46" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
       <c r="H46" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="22" t="s">
+      <c r="J46" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2297,17 +2301,17 @@
       <c r="B47" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
       <c r="H47" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="22" t="s">
+      <c r="J47" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2328,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="22" t="s">
+      <c r="J48" s="10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2339,17 +2343,17 @@
       <c r="B49" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
       <c r="H49" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="22" t="s">
+      <c r="J49" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2370,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="22" t="s">
+      <c r="J50" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2391,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="22" t="s">
+      <c r="J51" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2412,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="2"/>
-      <c r="J52" s="22" t="s">
+      <c r="J52" s="10" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2433,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="22" t="s">
+      <c r="J53" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2444,17 +2448,17 @@
       <c r="B54" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
       <c r="H54" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I54" s="2"/>
-      <c r="J54" s="22" t="s">
+      <c r="J54" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2465,17 +2469,17 @@
       <c r="B55" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
       <c r="H55" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="22" t="s">
+      <c r="J55" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2486,17 +2490,17 @@
       <c r="B56" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
       <c r="H56" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="22" t="s">
+      <c r="J56" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2507,17 +2511,17 @@
       <c r="B57" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
       <c r="H57" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="22" t="s">
+      <c r="J57" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2528,17 +2532,17 @@
       <c r="B58" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
       <c r="H58" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="22" t="s">
+      <c r="J58" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2559,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="2"/>
-      <c r="J59" s="22" t="s">
+      <c r="J59" s="10" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2570,17 +2574,17 @@
       <c r="B60" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
       <c r="H60" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I60" s="2"/>
-      <c r="J60" s="22" t="s">
+      <c r="J60" s="10" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2601,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="2"/>
-      <c r="J61" s="22" t="s">
+      <c r="J61" s="10" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2622,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="2"/>
-      <c r="J62" s="22" t="s">
+      <c r="J62" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2643,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="2"/>
-      <c r="J63" s="22" t="s">
+      <c r="J63" s="10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2664,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="2"/>
-      <c r="J64" s="22" t="s">
+      <c r="J64" s="10" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2675,17 +2679,17 @@
       <c r="B65" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
       <c r="H65" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I65" s="2"/>
-      <c r="J65" s="22" t="s">
+      <c r="J65" s="10" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2696,17 +2700,17 @@
       <c r="B66" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
       <c r="H66" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I66" s="2"/>
-      <c r="J66" s="22" t="s">
+      <c r="J66" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2717,17 +2721,17 @@
       <c r="B67" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="11">
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="7">
         <f t="shared" ref="H67:H98" si="2">SUM(C67:G67)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="12"/>
-      <c r="J67" s="22" t="s">
+      <c r="I67" s="2"/>
+      <c r="J67" s="10" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2738,16 +2742,16 @@
       <c r="B68" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="11">
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J68" s="22" t="s">
+      <c r="J68" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2758,17 +2762,17 @@
       <c r="B69" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="11">
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="12"/>
-      <c r="J69" s="22" t="s">
+      <c r="I69" s="2"/>
+      <c r="J69" s="10" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2779,17 +2783,17 @@
       <c r="B70" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="11">
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="12"/>
-      <c r="J70" s="22" t="s">
+      <c r="I70" s="2"/>
+      <c r="J70" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2800,17 +2804,17 @@
       <c r="B71" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="11">
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="12"/>
-      <c r="J71" s="22" t="s">
+      <c r="I71" s="2"/>
+      <c r="J71" s="10" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2821,17 +2825,17 @@
       <c r="B72" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="11">
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="12"/>
-      <c r="J72" s="22" t="s">
+      <c r="I72" s="2"/>
+      <c r="J72" s="10" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2842,17 +2846,17 @@
       <c r="B73" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="11">
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="12"/>
-      <c r="J73" s="22" t="s">
+      <c r="I73" s="2"/>
+      <c r="J73" s="10" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2863,17 +2867,17 @@
       <c r="B74" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="11">
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I74" s="12"/>
-      <c r="J74" s="22" t="s">
+      <c r="I74" s="2"/>
+      <c r="J74" s="10" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2884,17 +2888,17 @@
       <c r="B75" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="11">
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I75" s="12"/>
-      <c r="J75" s="22" t="s">
+      <c r="I75" s="2"/>
+      <c r="J75" s="10" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2905,17 +2909,17 @@
       <c r="B76" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="11">
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="12"/>
-      <c r="J76" s="22" t="s">
+      <c r="I76" s="2"/>
+      <c r="J76" s="10" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2926,17 +2930,17 @@
       <c r="B77" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="11">
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="12"/>
-      <c r="J77" s="22" t="s">
+      <c r="I77" s="2"/>
+      <c r="J77" s="10" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2947,17 +2951,17 @@
       <c r="B78" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="11">
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I78" s="12"/>
-      <c r="J78" s="22" t="s">
+      <c r="I78" s="2"/>
+      <c r="J78" s="10" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2968,17 +2972,17 @@
       <c r="B79" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="11">
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I79" s="12"/>
-      <c r="J79" s="22" t="s">
+      <c r="I79" s="2"/>
+      <c r="J79" s="10" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2989,17 +2993,17 @@
       <c r="B80" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="11">
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I80" s="12"/>
-      <c r="J80" s="22" t="s">
+      <c r="I80" s="2"/>
+      <c r="J80" s="10" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3010,17 +3014,17 @@
       <c r="B81" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="11">
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I81" s="12"/>
-      <c r="J81" s="22" t="s">
+      <c r="I81" s="2"/>
+      <c r="J81" s="10" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3031,17 +3035,17 @@
       <c r="B82" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="11">
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I82" s="12"/>
-      <c r="J82" s="22" t="s">
+      <c r="I82" s="2"/>
+      <c r="J82" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3052,17 +3056,17 @@
       <c r="B83" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="11">
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I83" s="12"/>
-      <c r="J83" s="22" t="s">
+      <c r="I83" s="2"/>
+      <c r="J83" s="10" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3073,17 +3077,17 @@
       <c r="B84" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="11">
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I84" s="12"/>
-      <c r="J84" s="22" t="s">
+      <c r="I84" s="2"/>
+      <c r="J84" s="10" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3094,17 +3098,17 @@
       <c r="B85" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="11">
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I85" s="12"/>
-      <c r="J85" s="22" t="s">
+      <c r="I85" s="2"/>
+      <c r="J85" s="10" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3115,17 +3119,17 @@
       <c r="B86" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="11">
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I86" s="12"/>
-      <c r="J86" s="22" t="s">
+      <c r="I86" s="2"/>
+      <c r="J86" s="10" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3136,17 +3140,17 @@
       <c r="B87" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="11">
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I87" s="12"/>
-      <c r="J87" s="22" t="s">
+      <c r="I87" s="2"/>
+      <c r="J87" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3157,17 +3161,17 @@
       <c r="B88" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="11">
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I88" s="12"/>
-      <c r="J88" s="22" t="s">
+      <c r="I88" s="2"/>
+      <c r="J88" s="10" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3178,17 +3182,17 @@
       <c r="B89" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="11">
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I89" s="12"/>
-      <c r="J89" s="22" t="s">
+      <c r="I89" s="2"/>
+      <c r="J89" s="10" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3199,17 +3203,17 @@
       <c r="B90" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="11">
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I90" s="12"/>
-      <c r="J90" s="22" t="s">
+      <c r="I90" s="2"/>
+      <c r="J90" s="10" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3220,17 +3224,17 @@
       <c r="B91" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="11">
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I91" s="12"/>
-      <c r="J91" s="22" t="s">
+      <c r="I91" s="2"/>
+      <c r="J91" s="10" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3241,17 +3245,17 @@
       <c r="B92" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="11">
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I92" s="12"/>
-      <c r="J92" s="22" t="s">
+      <c r="I92" s="2"/>
+      <c r="J92" s="10" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3262,17 +3266,17 @@
       <c r="B93" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="11">
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I93" s="12"/>
-      <c r="J93" s="22" t="s">
+      <c r="I93" s="2"/>
+      <c r="J93" s="10" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3283,17 +3287,17 @@
       <c r="B94" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="11">
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I94" s="12"/>
-      <c r="J94" s="22" t="s">
+      <c r="I94" s="2"/>
+      <c r="J94" s="10" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3304,17 +3308,17 @@
       <c r="B95" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="11">
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I95" s="12"/>
-      <c r="J95" s="22" t="s">
+      <c r="I95" s="2"/>
+      <c r="J95" s="10" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3325,17 +3329,17 @@
       <c r="B96" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="11">
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I96" s="12"/>
-      <c r="J96" s="22" t="s">
+      <c r="I96" s="2"/>
+      <c r="J96" s="10" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3346,17 +3350,17 @@
       <c r="B97" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="11">
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I97" s="12"/>
-      <c r="J97" s="22" t="s">
+      <c r="I97" s="2"/>
+      <c r="J97" s="10" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3367,17 +3371,17 @@
       <c r="B98" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="11">
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I98" s="12"/>
-      <c r="J98" s="22" t="s">
+      <c r="I98" s="2"/>
+      <c r="J98" s="10" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3388,17 +3392,17 @@
       <c r="B99" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="11">
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="7">
         <f t="shared" ref="H99:H130" si="3">SUM(C99:G99)</f>
         <v>0</v>
       </c>
-      <c r="I99" s="12"/>
-      <c r="J99" s="22" t="s">
+      <c r="I99" s="2"/>
+      <c r="J99" s="10" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3409,17 +3413,17 @@
       <c r="B100" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="11">
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I100" s="12"/>
-      <c r="J100" s="22" t="s">
+      <c r="I100" s="2"/>
+      <c r="J100" s="10" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3430,17 +3434,17 @@
       <c r="B101" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="11">
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I101" s="12"/>
-      <c r="J101" s="22" t="s">
+      <c r="I101" s="2"/>
+      <c r="J101" s="10" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3451,17 +3455,17 @@
       <c r="B102" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="11">
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I102" s="12"/>
-      <c r="J102" s="22" t="s">
+      <c r="I102" s="2"/>
+      <c r="J102" s="10" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3472,17 +3476,17 @@
       <c r="B103" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="11">
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I103" s="12"/>
-      <c r="J103" s="22" t="s">
+      <c r="I103" s="2"/>
+      <c r="J103" s="10" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3493,17 +3497,17 @@
       <c r="B104" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="11">
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I104" s="12"/>
-      <c r="J104" s="22" t="s">
+      <c r="I104" s="2"/>
+      <c r="J104" s="10" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3514,17 +3518,17 @@
       <c r="B105" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="11">
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I105" s="12"/>
-      <c r="J105" s="22" t="s">
+      <c r="I105" s="2"/>
+      <c r="J105" s="10" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3535,17 +3539,17 @@
       <c r="B106" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="11">
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I106" s="12"/>
-      <c r="J106" s="22" t="s">
+      <c r="I106" s="2"/>
+      <c r="J106" s="10" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3556,17 +3560,17 @@
       <c r="B107" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="11">
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I107" s="12"/>
-      <c r="J107" s="22" t="s">
+      <c r="I107" s="2"/>
+      <c r="J107" s="10" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3577,17 +3581,17 @@
       <c r="B108" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="11">
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I108" s="12"/>
-      <c r="J108" s="22" t="s">
+      <c r="I108" s="2"/>
+      <c r="J108" s="10" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3598,17 +3602,17 @@
       <c r="B109" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="11">
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I109" s="12"/>
-      <c r="J109" s="22" t="s">
+      <c r="I109" s="2"/>
+      <c r="J109" s="10" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3619,17 +3623,17 @@
       <c r="B110" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="11">
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I110" s="12"/>
-      <c r="J110" s="22" t="s">
+      <c r="I110" s="2"/>
+      <c r="J110" s="10" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3640,17 +3644,17 @@
       <c r="B111" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="11">
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I111" s="12"/>
-      <c r="J111" s="22" t="s">
+      <c r="I111" s="2"/>
+      <c r="J111" s="10" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3661,17 +3665,17 @@
       <c r="B112" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="11">
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I112" s="12"/>
-      <c r="J112" s="22" t="s">
+      <c r="I112" s="2"/>
+      <c r="J112" s="10" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3682,17 +3686,17 @@
       <c r="B113" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="11">
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I113" s="12"/>
-      <c r="J113" s="22" t="s">
+      <c r="I113" s="2"/>
+      <c r="J113" s="10" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3703,17 +3707,17 @@
       <c r="B114" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="11">
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I114" s="12"/>
-      <c r="J114" s="22" t="s">
+      <c r="I114" s="2"/>
+      <c r="J114" s="10" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3724,17 +3728,17 @@
       <c r="B115" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="11">
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I115" s="12"/>
-      <c r="J115" s="22" t="s">
+      <c r="I115" s="2"/>
+      <c r="J115" s="10" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3745,17 +3749,17 @@
       <c r="B116" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="11">
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I116" s="12"/>
-      <c r="J116" s="22" t="s">
+      <c r="I116" s="2"/>
+      <c r="J116" s="10" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3766,17 +3770,17 @@
       <c r="B117" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="11">
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I117" s="12"/>
-      <c r="J117" s="22" t="s">
+      <c r="I117" s="2"/>
+      <c r="J117" s="10" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3787,17 +3791,17 @@
       <c r="B118" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="11">
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I118" s="12"/>
-      <c r="J118" s="22" t="s">
+      <c r="I118" s="2"/>
+      <c r="J118" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3808,17 +3812,17 @@
       <c r="B119" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="11">
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I119" s="12"/>
-      <c r="J119" s="22" t="s">
+      <c r="I119" s="2"/>
+      <c r="J119" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3829,17 +3833,17 @@
       <c r="B120" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="11">
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I120" s="12"/>
-      <c r="J120" s="22" t="s">
+      <c r="I120" s="2"/>
+      <c r="J120" s="10" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3850,17 +3854,17 @@
       <c r="B121" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="11">
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I121" s="12"/>
-      <c r="J121" s="22" t="s">
+      <c r="I121" s="2"/>
+      <c r="J121" s="10" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3871,17 +3875,17 @@
       <c r="B122" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="11">
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I122" s="12"/>
-      <c r="J122" s="22" t="s">
+      <c r="I122" s="2"/>
+      <c r="J122" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3892,17 +3896,17 @@
       <c r="B123" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="11">
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I123" s="12"/>
-      <c r="J123" s="22" t="s">
+      <c r="I123" s="2"/>
+      <c r="J123" s="10" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3913,17 +3917,17 @@
       <c r="B124" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="11">
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I124" s="12"/>
-      <c r="J124" s="22" t="s">
+      <c r="I124" s="2"/>
+      <c r="J124" s="10" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3934,17 +3938,17 @@
       <c r="B125" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="11">
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I125" s="12"/>
-      <c r="J125" s="22" t="s">
+      <c r="I125" s="2"/>
+      <c r="J125" s="10" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3955,17 +3959,17 @@
       <c r="B126" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="11">
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I126" s="12"/>
-      <c r="J126" s="22" t="s">
+      <c r="I126" s="2"/>
+      <c r="J126" s="10" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3976,17 +3980,17 @@
       <c r="B127" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="11">
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I127" s="12"/>
-      <c r="J127" s="22" t="s">
+      <c r="I127" s="2"/>
+      <c r="J127" s="10" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3997,17 +4001,17 @@
       <c r="B128" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="11">
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I128" s="12"/>
-      <c r="J128" s="22" t="s">
+      <c r="I128" s="2"/>
+      <c r="J128" s="10" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4018,17 +4022,17 @@
       <c r="B129" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="11">
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I129" s="12"/>
-      <c r="J129" s="22" t="s">
+      <c r="I129" s="2"/>
+      <c r="J129" s="10" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4039,17 +4043,17 @@
       <c r="B130" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="11">
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I130" s="12"/>
-      <c r="J130" s="22" t="s">
+      <c r="I130" s="2"/>
+      <c r="J130" s="10" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4060,17 +4064,17 @@
       <c r="B131" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="11">
-        <f t="shared" ref="H131:H162" si="4">SUM(C131:G131)</f>
-        <v>0</v>
-      </c>
-      <c r="I131" s="12"/>
-      <c r="J131" s="22" t="s">
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="7">
+        <f t="shared" ref="H131:H142" si="4">SUM(C131:G131)</f>
+        <v>0</v>
+      </c>
+      <c r="I131" s="2"/>
+      <c r="J131" s="10" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4081,17 +4085,17 @@
       <c r="B132" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="11">
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I132" s="12"/>
-      <c r="J132" s="22" t="s">
+      <c r="I132" s="2"/>
+      <c r="J132" s="10" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4102,17 +4106,17 @@
       <c r="B133" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="11">
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I133" s="12"/>
-      <c r="J133" s="22" t="s">
+      <c r="I133" s="2"/>
+      <c r="J133" s="10" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4123,17 +4127,17 @@
       <c r="B134" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="11">
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I134" s="12"/>
-      <c r="J134" s="22" t="s">
+      <c r="I134" s="2"/>
+      <c r="J134" s="10" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4144,17 +4148,17 @@
       <c r="B135" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="11">
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I135" s="12"/>
-      <c r="J135" s="22" t="s">
+      <c r="I135" s="2"/>
+      <c r="J135" s="10" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4165,17 +4169,17 @@
       <c r="B136" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="11">
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I136" s="12"/>
-      <c r="J136" s="22" t="s">
+      <c r="I136" s="2"/>
+      <c r="J136" s="10" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4186,16 +4190,16 @@
       <c r="B137" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="11">
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J137" s="23" t="s">
+      <c r="J137" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4206,16 +4210,16 @@
       <c r="B138" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="11">
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J138" s="23" t="s">
+      <c r="J138" s="11" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4226,16 +4230,16 @@
       <c r="B139" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="11">
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J139" s="23" t="s">
+      <c r="J139" s="11" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4246,16 +4250,16 @@
       <c r="B140" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="11">
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J140" s="23" t="s">
+      <c r="J140" s="11" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4266,16 +4270,16 @@
       <c r="B141" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="11">
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J141" s="23" t="s">
+      <c r="J141" s="11" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4286,29 +4290,29 @@
       <c r="B142" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="11">
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J142" s="23" t="s">
+      <c r="J142" s="11" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
       <c r="H143" s="7"/>
-      <c r="J143" s="23"/>
+      <c r="J143" s="11"/>
     </row>
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4"/>
@@ -4319,7 +4323,7 @@
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c r="H144" s="7"/>
-      <c r="J144" s="23"/>
+      <c r="J144" s="11"/>
     </row>
     <row r="145" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4"/>
@@ -4332,29 +4336,29 @@
     </row>
     <row r="146" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
       <c r="H146" s="7"/>
     </row>
     <row r="147" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4"/>
-      <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
       <c r="H147" s="7"/>
     </row>
     <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
       <c r="H148" s="7"/>
     </row>
     <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4377,38 +4381,38 @@
     </row>
     <row r="151" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4"/>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
       <c r="H151" s="7"/>
     </row>
     <row r="152" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
       <c r="H152" s="7"/>
     </row>
     <row r="153" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4"/>
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
-      <c r="E153" s="9"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="9"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
       <c r="H153" s="7"/>
     </row>
     <row r="154" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4"/>
-      <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
-      <c r="E154" s="9"/>
-      <c r="F154" s="9"/>
-      <c r="G154" s="9"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
       <c r="H154" s="7"/>
     </row>
     <row r="155" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4422,182 +4426,182 @@
     </row>
     <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4"/>
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
-      <c r="F156" s="9"/>
-      <c r="G156" s="9"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
       <c r="H156" s="7"/>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4"/>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9"/>
-      <c r="F157" s="9"/>
-      <c r="G157" s="9"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
       <c r="H157" s="7"/>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4"/>
-      <c r="C158" s="9"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9"/>
-      <c r="F158" s="9"/>
-      <c r="G158" s="9"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
       <c r="H158" s="7"/>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
-      <c r="E159" s="9"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
       <c r="H159" s="7"/>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4"/>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="9"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
       <c r="H160" s="7"/>
     </row>
     <row r="161" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
-      <c r="C161" s="9"/>
-      <c r="D161" s="9"/>
-      <c r="E161" s="9"/>
-      <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
       <c r="H161" s="7"/>
     </row>
     <row r="162" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
-      <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
-      <c r="E162" s="9"/>
-      <c r="F162" s="9"/>
-      <c r="G162" s="9"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
       <c r="H162" s="7"/>
     </row>
     <row r="163" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
-      <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
-      <c r="E163" s="9"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
       <c r="H163" s="7"/>
     </row>
     <row r="164" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
-      <c r="C164" s="9"/>
-      <c r="D164" s="9"/>
-      <c r="E164" s="9"/>
-      <c r="F164" s="9"/>
-      <c r="G164" s="9"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
       <c r="H164" s="7"/>
     </row>
     <row r="165" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
-      <c r="C165" s="9"/>
-      <c r="D165" s="9"/>
-      <c r="E165" s="9"/>
-      <c r="F165" s="9"/>
-      <c r="G165" s="9"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
       <c r="H165" s="7"/>
     </row>
     <row r="166" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4"/>
-      <c r="C166" s="9"/>
-      <c r="D166" s="9"/>
-      <c r="E166" s="9"/>
-      <c r="F166" s="9"/>
-      <c r="G166" s="9"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
       <c r="H166" s="7"/>
     </row>
     <row r="167" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
-      <c r="C167" s="9"/>
-      <c r="D167" s="9"/>
-      <c r="E167" s="9"/>
-      <c r="F167" s="9"/>
-      <c r="G167" s="9"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
       <c r="H167" s="7"/>
     </row>
     <row r="168" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C168" s="9"/>
-      <c r="D168" s="9"/>
-      <c r="E168" s="9"/>
-      <c r="F168" s="9"/>
-      <c r="G168" s="9"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
       <c r="H168" s="7"/>
     </row>
     <row r="169" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="9"/>
-      <c r="F169" s="9"/>
-      <c r="G169" s="9"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
       <c r="H169" s="7"/>
     </row>
     <row r="170" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C170" s="9"/>
-      <c r="D170" s="9"/>
-      <c r="E170" s="9"/>
-      <c r="F170" s="9"/>
-      <c r="G170" s="9"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
       <c r="H170" s="7"/>
     </row>
     <row r="171" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C171" s="9"/>
-      <c r="D171" s="9"/>
-      <c r="E171" s="9"/>
-      <c r="F171" s="9"/>
-      <c r="G171" s="9"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
       <c r="H171" s="7"/>
     </row>
     <row r="172" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C172" s="9"/>
-      <c r="D172" s="9"/>
-      <c r="E172" s="9"/>
-      <c r="F172" s="9"/>
-      <c r="G172" s="9"/>
+      <c r="C172" s="8"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="8"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8"/>
       <c r="H172" s="7"/>
     </row>
     <row r="173" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C173" s="9"/>
-      <c r="D173" s="9"/>
-      <c r="E173" s="9"/>
-      <c r="F173" s="9"/>
-      <c r="G173" s="9"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="8"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8"/>
       <c r="H173" s="7"/>
     </row>
     <row r="174" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C174" s="9"/>
-      <c r="D174" s="9"/>
-      <c r="E174" s="9"/>
-      <c r="F174" s="9"/>
-      <c r="G174" s="9"/>
+      <c r="C174" s="8"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
       <c r="H174" s="7"/>
     </row>
     <row r="175" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C175" s="9"/>
-      <c r="D175" s="9"/>
-      <c r="E175" s="9"/>
-      <c r="F175" s="9"/>
-      <c r="G175" s="9"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
       <c r="H175" s="7"/>
     </row>
     <row r="176" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C176" s="9"/>
-      <c r="D176" s="9"/>
-      <c r="E176" s="9"/>
-      <c r="F176" s="9"/>
-      <c r="G176" s="9"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
       <c r="H176" s="7"/>
     </row>
   </sheetData>
